--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AB/15/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AB/15/seed4/result_data_KNN.xlsx
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.640000000000001</v>
+        <v>6.057</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.79</v>
+        <v>-21.752</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.784</v>
+        <v>5.57</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>5.944</v>
+        <v>6.04</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.294</v>
+        <v>-22.156</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-20.568</v>
+        <v>-20.394</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.786</v>
+        <v>5.761</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -887,10 +887,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.356</v>
+        <v>-21.188</v>
       </c>
       <c r="B27" t="n">
-        <v>5.546</v>
+        <v>5.694999999999999</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.602</v>
+        <v>6.039</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-19.86</v>
+        <v>-19.823</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.416</v>
+        <v>8.376000000000001</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1077,7 +1077,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>6.1</v>
+        <v>5.548</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>6.118</v>
+        <v>6.145</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>6.45</v>
+        <v>5.337</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.936</v>
+        <v>5.867</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.638</v>
+        <v>-21.61</v>
       </c>
       <c r="B69" t="n">
-        <v>5.473999999999999</v>
+        <v>5.953</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1621,7 +1621,7 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>4.932</v>
+        <v>5.401999999999999</v>
       </c>
       <c r="C70" t="n">
         <v>-9.9</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-20.186</v>
+        <v>-20.46</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.154</v>
+        <v>-20.242</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.422</v>
+        <v>6.273</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.044</v>
+        <v>-21.986</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-19.754</v>
+        <v>-20.146</v>
       </c>
       <c r="B83" t="n">
-        <v>8.672000000000001</v>
+        <v>7.354000000000001</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.996</v>
+        <v>-21.942</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>7.425999999999999</v>
+        <v>7.231</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
